--- a/sf-excel/src/test/java/cn/sf/excel/common/reader-test.xlsx
+++ b/sf-excel/src/test/java/cn/sf/excel/common/reader-test.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,23 @@
     <rPh sb="0" eb="1">
       <t>fou</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <rPh sb="0" eb="1">
+      <t>ri qi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2012-12-12</t>
+  </si>
+  <si>
+    <t>2012-12-13</t>
+  </si>
+  <si>
+    <t>2012-12-11 23:00:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -473,10 +490,12 @@
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -492,8 +511,11 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -509,8 +531,11 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,8 +551,11 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -542,6 +570,9 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/sf-excel/src/test/java/cn/sf/excel/common/reader-test.xlsx
+++ b/sf-excel/src/test/java/cn/sf/excel/common/reader-test.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="460" windowWidth="25600" windowHeight="14200"/>
+    <workbookView xWindow="5100" yWindow="520" windowWidth="25600" windowHeight="14200"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,12 +119,6 @@
       <t>ri qi</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012-12-12</t>
-  </si>
-  <si>
-    <t>2012-12-13</t>
   </si>
   <si>
     <t>2012-12-11 23:00:00</t>
@@ -481,7 +475,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -532,7 +526,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -551,9 +545,6 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -570,9 +561,6 @@
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
